--- a/Respuestas SUS.xlsx
+++ b/Respuestas SUS.xlsx
@@ -1,26 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\Proyectos\Lab3Tingeso\Lab3Tingeso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26528821-9C42-40E7-8CFE-BEFCAB5CFE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>1. Creo que me gustaría utilizar este sistema con frecuencia</t>
+  </si>
+  <si>
+    <t>2. Encontré el sistema innecesariamente complejo</t>
+  </si>
+  <si>
+    <t>3. Pensé que el sistema era fácil de usar</t>
+  </si>
+  <si>
+    <t>4. Creo que necesitaría el apoyo de un técnico para poder utilizar este sistema</t>
+  </si>
+  <si>
+    <t>5. Encontré que las diversas funciones de este sistema estaban bien integradas</t>
+  </si>
+  <si>
+    <t>6. Pensé que había demasiada inconsistencia en este sistema</t>
+  </si>
+  <si>
+    <t>7. Me imagino que la mayoría de la gente aprendería a utilizar este sistema muy rápidamente</t>
+  </si>
+  <si>
+    <t>8. Encontré el sistema muy complicado de usar</t>
+  </si>
+  <si>
+    <t>9. Me sentí muy seguro usando el sistema</t>
+  </si>
+  <si>
+    <t>10. Necesitaba aprender muchas cosas antes de empezar con este sistema</t>
+  </si>
+  <si>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>1. Totalmente en desacuerdo</t>
+  </si>
+  <si>
+    <t>2. En desacuerdo</t>
+  </si>
+  <si>
+    <t>3. Neutro</t>
+  </si>
+  <si>
+    <t>4. De acuerdo</t>
+  </si>
+  <si>
+    <t>5. Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Resultado SUS</t>
+  </si>
+  <si>
+    <t>Promedios</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +110,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,12 +172,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +569,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="2:13" ht="45" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M13" si="0">((C4-1) + (5-D4) + (E4-1) + (5-F4) + (G4-1) + (5-H4) + (I4-1) + (5-J4) + (K4-1) + (5-L4)) * 2.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C4:C13)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:M14" si="1">AVERAGE(D4:D13)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:M2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:L13 B2:C2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:M13 B2:C2">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:L13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="5"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="5"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Respuestas SUS.xlsx
+++ b/Respuestas SUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\Proyectos\Lab3Tingeso\Lab3Tingeso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26528821-9C42-40E7-8CFE-BEFCAB5CFE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA5194-D854-4110-A7A3-BEC0410ED4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Preguntas</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Promedios</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
   </si>
 </sst>
 </file>
@@ -572,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,37 +690,81 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -850,7 +900,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -866,7 +916,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
@@ -882,7 +932,7 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">

--- a/Respuestas SUS.xlsx
+++ b/Respuestas SUS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\Proyectos\Lab3Tingeso\Lab3Tingeso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA5194-D854-4110-A7A3-BEC0410ED4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C322E18C-7357-4505-8D1E-D01377E2742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Preguntas</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Cata</t>
+  </si>
+  <si>
+    <t>Maria jose</t>
   </si>
 </sst>
 </file>
@@ -578,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,54 +777,120 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -892,15 +967,15 @@
       </c>
       <c r="C14" s="1">
         <f>AVERAGE(C4:C13)</f>
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:M14" si="1">AVERAGE(D4:D13)</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -908,15 +983,15 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
@@ -924,15 +999,15 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
